--- a/data/state_election_results/northcarolina_president.xlsx
+++ b/data/state_election_results/northcarolina_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A24E2A-0499-ED49-BDE1-DE4F20A854B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F237511-1F61-FE4F-BB7F-12A7ECB8BA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18040" yWindow="3700" windowWidth="13900" windowHeight="15940" xr2:uid="{AF6AFC5F-C4FA-C14C-9094-36B1D9402743}"/>
   </bookViews>
@@ -356,7 +356,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -399,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,9 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8544E775-2C0F-F449-8177-938C7E34749C}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
